--- a/BlindCV_Résultats.xlsx
+++ b/BlindCV_Résultats.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kinn/Desktop/Projet_BlindCV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B456569A-21C7-9E4F-B1B3-12C5346A294B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD7D6A5D-E86E-D04E-B07E-800C91F0E083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{F833BA36-6EFE-D248-A1DB-965343A1BE49}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F833BA36-6EFE-D248-A1DB-965343A1BE49}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Génaral" sheetId="1" r:id="rId1"/>
+    <sheet name="Regression_Logistique" sheetId="2" r:id="rId2"/>
+    <sheet name="Arbre_de_décisions" sheetId="3" r:id="rId3"/>
+    <sheet name="Random_Forest" sheetId="4" r:id="rId4"/>
+    <sheet name="Naives_Bayes" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="76">
   <si>
     <t>Dataframe</t>
   </si>
   <si>
-    <t>Modele</t>
-  </si>
-  <si>
     <t>Regression logistique</t>
   </si>
   <si>
@@ -68,18 +69,6 @@
     <t>Nom fichier ipynb</t>
   </si>
   <si>
-    <t xml:space="preserve">Part </t>
-  </si>
-  <si>
-    <t>code_BlindCV_Model_Reg_Logistic.ipynb</t>
-  </si>
-  <si>
-    <t>code_BlindCV_Model_Random_Forest.ipynb</t>
-  </si>
-  <si>
-    <t>code_BlindCV_Model_Decion_Tree.ipynb</t>
-  </si>
-  <si>
     <t>X5</t>
   </si>
   <si>
@@ -129,13 +118,290 @@
   </si>
   <si>
     <t>Features2</t>
+  </si>
+  <si>
+    <t>EDA</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>Process NLP</t>
+  </si>
+  <si>
+    <t>Métriques</t>
+  </si>
+  <si>
+    <t>Accuracy_training_set</t>
+  </si>
+  <si>
+    <t>Accuracy_test_set</t>
+  </si>
+  <si>
+    <t>F1_Score_training_set</t>
+  </si>
+  <si>
+    <t>F1_Score_test_set</t>
+  </si>
+  <si>
+    <t>dataset_CV.csv</t>
+  </si>
+  <si>
+    <t>dataset_text_brut_200.csv</t>
+  </si>
+  <si>
+    <t>dataset_CV_labelise_features1_200.csv</t>
+  </si>
+  <si>
+    <t>Part_1_Code_BlindCV_.ipynb</t>
+  </si>
+  <si>
+    <t>Part_2_Code_BlindCV_Spacy.ipynb</t>
+  </si>
+  <si>
+    <t>Part_3_Code_BlindCV_Spacy_L.ipynb</t>
+  </si>
+  <si>
+    <t>Part_4_Code_BlindCV_Spacy_D.ipynb</t>
+  </si>
+  <si>
+    <t>Part_5_Code_BlindCV_Labelisation.ipynb</t>
+  </si>
+  <si>
+    <t>Part_6_Code_BlindCV_Labelisation_prod.ipynb</t>
+  </si>
+  <si>
+    <t>Part_7_Code_BlindCV_Model_Reg_Logistic.ipynb</t>
+  </si>
+  <si>
+    <t>Part_8_Code_BlindCV_Model_Decion_Tree.ipynb</t>
+  </si>
+  <si>
+    <t>Part_9_Code_BlindCV_Model_Random_Forest.ipynb</t>
+  </si>
+  <si>
+    <t>Part_10_Code_BlindCV_Model_Reg_Logistic.ipynb</t>
+  </si>
+  <si>
+    <t>Part_11_Code_BlindCV_Model_Decion_Tree.ipynb</t>
+  </si>
+  <si>
+    <t>Part_12_Code_BlindCV_Model_Random_Forest.ipynb</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>Performance du model de Régression Logistique</t>
+  </si>
+  <si>
+    <t>Nb_ de features</t>
+  </si>
+  <si>
+    <t>NB_CV</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Train__test_split</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>F1-score</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Max_depth</t>
+  </si>
+  <si>
+    <t>min_samples_leaf</t>
+  </si>
+  <si>
+    <t>min_sample_split</t>
+  </si>
+  <si>
+    <t>Paramètres Grid Search</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>[2, 4, 8]</t>
+  </si>
+  <si>
+    <t>Grid Search_ Best Parameters</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Matrice de confusion</t>
+  </si>
+  <si>
+    <t>0.958</t>
+  </si>
+  <si>
+    <t>0.957</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,6 +414,31 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF098658"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,15 +461,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -495,258 +793,1006 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3821A64A-F549-AD44-98B8-21954A720C27}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="3"/>
-    <col min="11" max="11" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>42</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="G11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N2" t="s">
+      <c r="H11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O2" t="s">
+      <c r="I11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P2" t="s">
+      <c r="J11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="K11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>42</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>42</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F11" s="3">
-        <v>42</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>16</v>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C28339-62C5-B544-9910-28D580058527}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="7" width="18.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>100</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>200</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>100</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>200</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H17" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499D5C84-9897-BA4B-88A1-F8CE9ECA39EF}">
+  <dimension ref="A1:R9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="29" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>100</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>200</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>100</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>200</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="O4:R4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4E1598-BDF6-9A44-935E-BBDAABE582E7}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="7" width="18.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>100</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>200</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>100</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>200</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D83E3A1-30E6-3948-A782-13ECAC9F6BB2}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="7" width="18.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>100</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>200</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>100</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>200</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
